--- a/data/output/FV2504_FV2410/UTILMD/55067.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55067.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="257">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="257">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -882,6 +882,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U112" totalsRowShown="0">
+  <autoFilter ref="A1:U112"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +1201,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6458,5 +6491,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55067.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55067.xlsx
@@ -1666,7 +1666,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4120,26 +4120,26 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K51" s="6" t="s">
@@ -4148,23 +4148,23 @@
       <c r="L51" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5" t="s">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>211</v>
       </c>
       <c r="V51" s="6" t="s">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5056,7 +5056,7 @@
         <v>238</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5248,7 +5248,7 @@
         <v>239</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5450,7 +5450,7 @@
         <v>241</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5574,52 +5574,52 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O80" s="5" t="s">
+      <c r="O80" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -5764,7 +5764,7 @@
         <v>242</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6458,7 +6458,7 @@
         <v>243</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6582,52 +6582,52 @@
       <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K100" s="5"/>
+      <c r="K100" s="2"/>
       <c r="L100" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O100" s="5" t="s">
+      <c r="O100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P100" s="5"/>
+      <c r="P100" s="2"/>
       <c r="Q100" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V100" s="5"/>
+      <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -6820,7 +6820,7 @@
         <v>244</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7110,48 +7110,48 @@
       <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5" t="s">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K110" s="5"/>
+      <c r="K110" s="2"/>
       <c r="L110" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M110" s="5" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5" t="s">
+      <c r="N110" s="2"/>
+      <c r="O110" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P110" s="5"/>
+      <c r="P110" s="2"/>
       <c r="Q110" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V110" s="5"/>
+      <c r="V110" s="2"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
